--- a/Excel/CheckPoint.xlsx
+++ b/Excel/CheckPoint.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,12 +166,6 @@
   <si>
     <t>0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,2</t>
   </si>
   <si>
     <t>chapter</t>
@@ -550,7 +544,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -561,7 +555,7 @@
     <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
@@ -578,7 +572,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -780,7 +774,7 @@
         <v>38</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -822,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CheckPoint.xlsx
+++ b/Excel/CheckPoint.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/CheckPoint.xlsx
+++ b/Excel/CheckPoint.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,14 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Layoputs/Layout_Battle_01.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Layoputs/Layout_Battle_01.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>battle_1_2</t>
   </si>
   <si>
@@ -170,6 +162,16 @@
   <si>
     <t>chapter</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Layouts/Layout_Battle_01.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Layouts/Layout_Battle_02.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/Layouts/Layout_Battle_03.prefab</t>
   </si>
 </sst>
 </file>
@@ -544,7 +546,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,43 +568,43 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -654,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -666,39 +668,39 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -708,39 +710,39 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -750,19 +752,19 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
@@ -771,18 +773,18 @@
         <v>13</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -792,19 +794,19 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
@@ -813,10 +815,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CheckPoint.xlsx
+++ b/Excel/CheckPoint.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,79 +99,83 @@
     <t>battle_1_1</t>
   </si>
   <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cameraDistance</t>
+  </si>
+  <si>
+    <t>cameraAngle</t>
+  </si>
+  <si>
+    <t>cameraOffset</t>
+  </si>
+  <si>
+    <t>相机距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主光源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pve_research_1_UH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,135,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Layouts/Layout_Battle_01.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Layouts/Layout_Battle_02.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/Layouts/Layout_Battle_03.prefab</t>
+  </si>
+  <si>
     <t>p1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cameraDistance</t>
-  </si>
-  <si>
-    <t>cameraAngle</t>
-  </si>
-  <si>
-    <t>cameraOffset</t>
-  </si>
-  <si>
-    <t>相机距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机偏移量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机角度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主光源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pve_research_1_UH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,135,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Layouts/Layout_Battle_01.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Layouts/Layout_Battle_02.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/Layouts/Layout_Battle_03.prefab</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -546,7 +550,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -574,13 +578,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
@@ -595,16 +599,16 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -645,10 +649,10 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -668,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -683,16 +687,16 @@
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -710,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
@@ -719,10 +723,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -731,10 +735,10 @@
         <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -752,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
@@ -761,10 +765,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
@@ -773,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -794,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -803,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
@@ -815,10 +819,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CheckPoint.xlsx
+++ b/Excel/CheckPoint.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,72 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导2</t>
+  </si>
+  <si>
+    <t>新手引导3</t>
+  </si>
+  <si>
+    <t>iconUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlas/CheckPointIcon/icon_cardpiece1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlas/CheckPointIcon/icon_cardpiece3.png</t>
+  </si>
+  <si>
+    <t>Atlas/CheckPointIcon/icon_cardpiece4.png</t>
+  </si>
+  <si>
+    <t>Atlas/CheckPointIcon/icon_cardpiece5.png</t>
+  </si>
+  <si>
+    <t>Atlas/CheckPointIcon/icon_cardpiece6.png</t>
+  </si>
+  <si>
+    <t>Atlas/CheckPointIcon/icon_cardpiece2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/CheckPoint/MapLayout0.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡点布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,15 +613,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
@@ -565,9 +632,11 @@
     <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.625" customWidth="1"/>
+    <col min="16" max="16" width="44.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,8 +679,14 @@
       <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,10 +727,16 @@
         <v>42</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -698,15 +779,23 @@
       <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
@@ -740,15 +829,23 @@
       <c r="N4" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
@@ -782,15 +879,21 @@
       <c r="N5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
@@ -823,6 +926,156 @@
       </c>
       <c r="N6" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CheckPoint.xlsx
+++ b/Excel/CheckPoint.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,15 +232,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>layoutUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡点布局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiLayoutUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +616,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,7 +680,7 @@
         <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>49</v>
@@ -780,7 +780,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>50</v>
@@ -794,7 +794,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -879,7 +879,9 @@
       <c r="N5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>56</v>
       </c>
@@ -892,7 +894,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -927,7 +929,9 @@
       <c r="N6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>52</v>
       </c>
@@ -940,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -990,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1025,7 +1029,9 @@
       <c r="N8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1073,7 +1079,9 @@
       <c r="N9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>55</v>
       </c>

--- a/Excel/CheckPoint.xlsx
+++ b/Excel/CheckPoint.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="78">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,12 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>battle_1_2</t>
-  </si>
-  <si>
-    <t>battle_1_3</t>
-  </si>
-  <si>
     <t>对阵距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,9 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>battle_1_1</t>
-  </si>
-  <si>
     <t>p2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,18 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>battle_2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle_2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle_2_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新手引导1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,11 +215,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uiLayoutUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxPassNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstRewardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_1_2</t>
+  </si>
+  <si>
+    <t>normal_1_3</t>
+  </si>
+  <si>
+    <t>normal_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal_2_2</t>
+  </si>
+  <si>
+    <t>normal_2_3</t>
+  </si>
+  <si>
+    <t>hard_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard_1_2</t>
+  </si>
+  <si>
+    <t>hard_1_3</t>
+  </si>
+  <si>
+    <t>hard_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard_2_2</t>
+  </si>
+  <si>
+    <t>hard_2_3</t>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大通关次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大重置次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxResetNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次奖励id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,80 +676,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.625" customWidth="1"/>
-    <col min="16" max="16" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.625" customWidth="1"/>
+    <col min="21" max="21" width="44.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -724,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>0</v>
@@ -733,18 +816,33 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -753,337 +851,832 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>50</v>
+      <c r="Q3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
         <v>11</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>13</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>13</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="1">
         <v>3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="Q6" s="1">
         <v>13</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="L7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
         <v>11</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="R7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>13</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>13</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
+      <c r="F9" s="1">
+        <v>1</v>
       </c>
       <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>13</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="1">
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="L9" s="1">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>11</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
         <v>13</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="R11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1">
+        <v>200001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>13</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1">
+        <v>200002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>11</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200002</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="1">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>55</v>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>13</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1">
+        <v>200002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>13</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
